--- a/medicine/Enfance/Le_Naufragé_des_étoiles/Le_Naufragé_des_étoiles.xlsx
+++ b/medicine/Enfance/Le_Naufragé_des_étoiles/Le_Naufragé_des_étoiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Naufrag%C3%A9_des_%C3%A9toiles</t>
+          <t>Le_Naufragé_des_étoiles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Naufragé des étoiles est le treizième roman de la série Les Conquérants de l'impossible écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1980 chez Hachette dans la collection Bibliothèque verte.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Naufrag%C3%A9_des_%C3%A9toiles</t>
+          <t>Le_Naufragé_des_étoiles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après les calculs du professeur Auvernaux, un astéroïde, le D. 23, s'approche peu à peu de la Terre sur laquelle il doit s'écraser dans vingt ans, en Haute-Provence, à quelques kilomètres de la route Napoléon. Le professeur propose à Serge, Xolotl et Thibaut de faire un bond de vingt ans dans le temps pour rapporter des échantillons de l'astéroïde. 
 Les trois jeunes gens sont donc envoyés en l’an 2000. Ils y découvrent une société très différente. Deux groupes s'opposent : les Réguliers et les Rétros. Les Réguliers, vêtus d'un genre de combinaison rouge aux reflets métalliques et portant tous un bracelet d'identité, habitent les villes où des robots veillent au respect des institutions. Les Rétros, avec leurs jeans élimés et leur refus de porter le bracelet d'identité, se regroupent dans les montagnes pour mener, loin des contrôles, la vie libre à laquelle ils aspirent.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Naufrag%C3%A9_des_%C3%A9toiles</t>
+          <t>Le_Naufragé_des_étoiles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1980 : Hachette, coll. : Bibliothèque verte, cartonné, texte original. Illustrations d'Yvon Le Gall. 181 p.  (ISBN 2-01-006522-0)
 1983 : Hachette, coll. : Bibliothèque verte, cartonné (série au dos hachuré), texte original. Illustrations de (inconnu). 181 p.  (ISBN 2-01-006522-0)
